--- a/medicine/Enfance/Grand_Galop/Grand_Galop.xlsx
+++ b/medicine/Enfance/Grand_Galop/Grand_Galop.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand Galop (The Saddle Club en anglais) est une série de livres pour la jeunesse créée par Bonnie Bryant et publiée de 1988 à 2001.
 Elle raconte les aventures de Carole, Stéphanie et Lisa, trois jeunes filles passionnées d'équitation.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lisa est une jeune fille réservée de bonne famille où les bêtises sont interdites. Elle est obligée de consacrer beaucoup de temps aux études. Carole est plutôt studieuse et folle d'équitation. Elle monte à cheval depuis très longtemps et possède même son propre cheval. Et la dernière, Stéphanie est pleine de vie et d'humour. Les trois amies forment un club secret, le « club du Grand Galop ».    
 </t>
@@ -543,7 +557,9 @@
           <t>Livres publiés en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les trois font la paire
